--- a/Week8/Day2/Exercises/Movies.xlsx
+++ b/Week8/Day2/Exercises/Movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DI_Bootcamp\Week8\Day2\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE30BB8-3395-4022-8D1C-D1953BFF5694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4294CB85-FB3C-46E4-87E1-1500B080C546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -6000,16 +6000,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -6021,81 +6012,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7730,8 +7646,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>170082</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Genre">
@@ -7754,7 +7670,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -27110,7 +27026,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B023BBB9-7454-458D-9A19-6B9590994B7F}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B023BBB9-7454-458D-9A19-6B9590994B7F}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A3:G6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -27205,20 +27121,20 @@
     <dataField name="Average of Nominations" fld="12" subtotal="average" baseField="4" baseItem="3" numFmtId="2"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="28">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
